--- a/document/excels/SRCNet/data2.xlsx
+++ b/document/excels/SRCNet/data2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="339">
   <si>
     <t>dcm_name</t>
   </si>
@@ -28,1012 +28,1009 @@
     <t>label</t>
   </si>
   <si>
+    <t>KBRMXM11.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02431-FGME-202310100858-R-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S370-WJXI-202309221435-双波段10-L.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01178-WWJU-202207111628-双波段-R-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00199-ZFNV-202306161427-双10-R.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-00266-YJSH-202203181503-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01886-LMYA-202302031043-双波段-R-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-00857-CYMA-202206091035-双波段-R-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-00432-CHRU-202204141114-双波段-R-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-00504-LYFE-202204241000-双波段-R-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01016-LQTA-202206221648-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02322-LIYI-202309102048-L-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S170-SQHO-202210181104-双波段10-L.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02088-XYYA-202306150908-R-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01537-HWJU-202209020925-双波段-R-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-00664-SZFE-202205171619-双波段-R-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00205-XFQI-202307271519-双10-L.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-00541-NLNA-202204281140-双波段-R-D.bmp</t>
+  </si>
+  <si>
     <t>0571-ZHJSH-00034-FALI-202202111516-双波段10-L.bmp</t>
   </si>
   <si>
+    <t>020-ZSSYX-02036-CGHU-202308011658-R-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S203-SSYI-202211141555-双波段10-L.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S275-FAPI-202305191624-双波段10-R.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S169-XZYI-202210171724-双波段10-L.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02373-THME-202309181554-R-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-00312-LIHU-202203250935-双波段-R-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00016-CYYA-202112071301-双波段10-R.bmp</t>
+  </si>
+  <si>
+    <t>KBKJBDH1.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-00507-ZHLII-202204241651-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02456-ZJLI-202310171444-L-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S403-CXLI-202311150958-双波段10-R.bmp</t>
+  </si>
+  <si>
+    <t>KBPL1GH1.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02267-CAYU-202307101059-L-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S214-YXJI-202212091047-双波段10-R.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01507-GYME-2022082261015-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S210-PZYA-202211231419-双波段10-L.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02076-TSJU-202308161457-R-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01654-HSJU-202209260935-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00027-CHXI-202201121658-双波段10-R.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02268-DYFE-202307101521-R-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02087-LILI-202308181107-R-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-00697-ZYLI-202205230920-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S303-ZHXI-202307031511-双波段10-L.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00108-ZLLI-202208301140-双15-L.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01470-YMZH-202208220850-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-00445-XHFA-202204141526-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01476-ZBLI-202208221359-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02364-CXBE-202309181001-L-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S137-CXLI-202208231730-双波段10-R.bmp</t>
+  </si>
+  <si>
+    <t>KC7Q6A11.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02392-CLCH-202309220944-R-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-00880-ZSWE-202206101549-双波段-R-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01831-LIPI-202212270922-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S169-XZYI-202210171728-双波段10-R.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S365-XMJI-202309201302-双波段10-R.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02033-LILU-202308011016-R-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-00616-FSHU-202205120945-双波段-R-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-00036-CXZH-202203291034-双波段10-R.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-00553-YSJU-202205050906双波段-R-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01475-LQYU-202208221056-双波段-R-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01866-HYHO-202301191048-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-00587-CCYU-202205091030双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S280-YJYU-202305261232-双波段10-L.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02094-ZLDA-202306121101-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02342-LMER-202309131500-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-00477-LXFE-202204181143-双波段-R-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-00628-HEFA-202205131008-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00081-TXFE-202207191033-双15-L.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02281-WUXI-202309021654-L-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00103-WSXI-202208231453-双15-R.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-00431-ZCTI-202204141055-双波段-R-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02287-LQRO-202309050907-R-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-00359-CSDA-202204010956-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02374-LYDA-202309190825-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02284-FUYU-202309040936-R-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-00897-WKME-202206140833-双波段-R-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01817-ZALI-202212070958-双波段-R-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01573-HYYU-202209090838-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01777-YYPI-202210240911-双波段-R-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-00073-YYHO-202204021513-双波段15-R.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-00756-ZHNE-2022052301036-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00086-WYQI-202207271340-双15-L.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S310-NFJU-202307171134-双波段10-R.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01594-LWFA-202209150913-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01587-YLFA-202209140854-双波段-R-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00061-WDHU-202205101551-双15-R.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02206-KHXI-202305110924-L-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S190-HQYU-202211011636-双波段10-R.bmp</t>
+  </si>
+  <si>
+    <t>KCFK7S11.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02085-TGRO-202307071703-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-00747-DJLI-202205261541-双波段-R-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02109-YSQU-202305250913-R-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01854-HZQI-202301120917-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>KCFNSE11.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-00811-LIME-202206060951-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00062-HWSH-202205241742-双15-L.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-00501-LZJU-202204211600-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00111-CZHU-202209051423-双15-R.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-00620-LSXI-202205121509-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-00332-WLJU-202203281159-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S264-JCXI-202304241152-双波段10-R.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02116-WUHA-202304201532-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02313-LJLI-202309080914-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02450-LYZH-202310160913-R-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02302-LXZH-202309061701-R-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02313-LJLI-202309080918-R-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01568-ZYLI-202209081001-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00123-XQWU-202209271048-双15-L.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01510-JHYI-2022082290821-双波段-R-D.bmp</t>
+  </si>
+  <si>
+    <t>ZJSYF00006-YUJI-202110261103-双波段-L.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01934-ZEJI-202302201052-双波段-R-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-00583-CXE-202205090924双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02311-GZHU-202304271013-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02290-LHME-202309051022-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02474-WJYI-202310201433-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-00990-YAXI-202206211131-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01601-XYFE-202209160931-双波段-R-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01592-WXDA-202209141049-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02090-HXME-202304270927-R-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02471-GXQI-202310191540-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02445-STSH-202310131117-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02075-HFXI-202308161436-R-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S358-YZNA-202309051400-双波段10-L.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01715-GUYI-202210101110-双波段-R-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00059-PXFA-202205091826-双15-R.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-00647-CWE-202205161524-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-00614-WUTA-202205120909-双波段-R-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02249-LZDA-202308301052-L-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S256-GALI-202304111509-双波段10-R.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00094-SGJU-202208120921-双15-L.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02025-LMAI-202307261110-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01437-QCHU-202208111051-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S278-MSNV-202305221622-双波段10-L.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01217-ZQLI-202207141539-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S392-TJFE-202311011023-双波段10-R.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S334-SXYA-202308141339-双波段10-L.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01620-XYZH-202209201045-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01969-YWQI-202303010942-双波段-R-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02362-WHME-202309180851-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-00704-YAMI-202205231445-双波段-R-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02463-LYLI-202310181604-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-00515-LYLI-202204260904-双波段-R-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S355-RSQI-202309041347-双波段10-R.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S249-CJYA-202303271432-双波段10-L.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01895-ZAPI-202302081010-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-00338-HJYU-202203300942-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-00367-YLRO-202204021039-双波段-R-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02285-LHDI-202306091012-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02283-FFFE-202309040919-L-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S175-LIYU-202210201512-双波段10-R.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01803-LWXI-202210311000-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S238-ZXYI-202302281015-双波段10-L.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02329-LSZH-202309111518-R-D.bmp</t>
+  </si>
+  <si>
+    <t>KC3PPB11.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S213-WQYU-202212091035-双波段10-R.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-00470-XWJU-202204180854-双波段-R-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01447-SMMI-202208161032-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-00659-CYWA-202205171151-双波段-R-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-00508-TYLA-202204250851-双波段-R-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-00335-RYXI-202203300905-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>KCJ2EDH1.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S363-ZHJU-202309111556-双波段10-L.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02205-ZJXI-202306141326-R-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02453-SMME-202310161015-R-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02261-LLHU-202308100942-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01906-XSYA-202302101437-双波段-R-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00097-LHLI-202208160933-双15-L.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-00593-CME-202205091626双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-00867-LHME-202206100855-双波段-R-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02219-JJMI-202308241947-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-00866-LXJU-202206100836-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02240-HWYU-202308291417-R-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S181-SYLI-202210251640-双波段10-R.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S289-LYFE-202306051510-双波段10-R.bmp</t>
+  </si>
+  <si>
+    <t>KE7ME9H1.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S313-WLPI-202307191144-双波段10-R.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01695-LYME-202210081046-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01859-HLJI-202301130934-双波段-R-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02331-ZJPI-202309111911-R-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02351-ZCPI-202309141846-L-D.bmp</t>
+  </si>
+  <si>
+    <t>KBBNR6H1.bmp</t>
+  </si>
+  <si>
+    <t>SCCDFY003-MLZH-202202221136-双波段10-R.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01882-GHRO-202302021027-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01593-XYDA-202209141103-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-00063-WXLI-202204011056-双波段15-R.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02003-WHQU-202307141043-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S185-ZQLI-202210311548-双波段10-L.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02334-HWHO-202309121016-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01838-CYPI-202301030937-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00054-HUCH-202204201733-双15-L.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01445-ZYMI-202208150931-双波段-R-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-00374-LCZH-202204021443-双波段-R-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00078-ZJZH-202207051201-双15-L.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01767-TCXI-202210191613-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02274-LLLU-202309011023-R-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01565-HJXI-202209080903-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S398-JKDI-202311101042-双波段10-L.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02007-LYFA-202307061037-R-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-00062-LHFA-202203311555-双波段15-R.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S277-ZMLA-202305221527-双波段10-L.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-00687-TMLI-202205200938-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01966-ZHYA-202303010905-双波段-R-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02209-CJLI-202308232112-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-00402-LUJI-202204080853-双波段-R-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02454-DYXI-202310161416-R-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-00034-LXQI-202203281638-双波段10-L.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01828-XYTI-202212200916-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>SCCDFY010-WHYI-202202281626-双波段10-L.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02314-CLHU-202309080935-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02239-LIQI-202308290919-L-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S396-HXYA-202311071058-双波段10-L.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01839-XYQU-202301030947-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00177-YHBI-202304071617-双15-L.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-00883-WXLI-202206130945-双波段-R-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00072-HYPI-202206201330-双15-R.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01842-LYJI-202301050839-双波段-R-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S383-LHPI-202310201125-双波段10-R.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH00043-ZSFE-202203080949-双15-L.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S212-LCJI-202212080943-双波段10-L.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01922-LHLI-202302160923-双波段-R-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-00832-LMHU-202206071556-双波段-R-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01591-FYLA-202209141044-双波段-R-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-00290-XIXI-202203221604-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01870-HLSI-202301291045-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S301-LBQI-202307031012-双波段10-L.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-00886-GDDA-202206131107-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02339-LYME-202309131057-R-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-00353-YHHO-202204010832-双波段-R-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-00323-CGFE-202203281019-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S284-NFHO-202305291449-双波段10-L.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01873-JYSO-202301301444-双波段-R-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-00662-ZYYU-202205171532-双波段-R-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02390-YXFA-202309220843-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-00308-ZRWE-202203241532-双波段-R-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02455-YXYI-202310171406-R-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01363-WCLI-202207291427-双波段-R-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02433-WQJU-202310101424-L-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S368-TMME-202309221114-双波段10-R.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01180-QJME-202207120933-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-00314-HQHA-202203251011-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01552-HLME-2022091541-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-00828-LMQI-202206071057-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>ZJSYF00002-CFHU-202110111442-双波段-L.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00104-JXFE-202208231541-双15-R.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-00571-LZNO-202205061447双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01500-WSYU-2022082251513-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S232-XCYI-202302201435-双波段10-L.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01936-MMDI-202302201451-双波段-R-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02101-LXHU-202308211021-R-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S237-ZHLA-202302271515-双波段10-R.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-00791-TAYI-202206011623-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02423-HXJU-202310081416-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-00992-ZZZH-202206211153-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02438-LAPA-202310120855-L-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S361-LJHA-202309111007-双波段10-L.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02227-OYXH-202305121024-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02422-SCYU-202310080854-R-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00041-XQJU-202203021159-双15-R.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01548-TYXU-2022091440-双波段-R-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-0192-LYJI-202203081059-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02208-ZYHU-202308221525-R-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S304-ZXLI-202307031533-双波段10-L.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01610-ZFYI-202209190948-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01994-ZHMI-202303071132-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00047-ZYLA-202203301429-双15-L.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01590-CLSI-202209141029-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-00329-DJNI-202203281125-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02465-HGXI-202310190820-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02444-LIQI-202310131008-R-D.bmp</t>
+  </si>
+  <si>
+    <t>KBRND4H1.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01941-GQWE-202302221101-双波段-R-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02428-HGDI-202310091459-R-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-00884-LJLA-202206131008-双波段-R-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S162-YAME-202210101614-双波段10-L.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-00305-CWME-202203240949-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01597-ZHXI-202209151016-双波段-R-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01704-HERO-202210091009-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-00475-CCLI-202204181038-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01479-CDLI-202208230924-双波段-R-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S192-WYJI-202211031420-双波段10-R.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02469-LJXI-202310191431-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02119-XWLI-202308230923-R-D.bmp</t>
+  </si>
+  <si>
+    <t>KE9JEXH1.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S347-JJQI-202308281410-双波段10-R.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S177-YYYI-202210211452-双波段10-R.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-00315-LGFA-202203251024-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S218-DFFE-202301041403-双波段10-L.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01907-LWQI-202302130901-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>KE3K8FH1.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-00522-HLPI-202204270925-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02044-LHJU-202308070909-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-00699-YGME-202205230957-双波段-R-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-0233-LMYU-202203150923-双波段-R-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01453-WAFA-202208170909-双波段-R-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01832-ZCYU-202212270938-双波段-R-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S261-YXLI-202304171023-双波段10-L.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-00364-WZHU-202204020950-双波段-R-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S397-YXXI-202311081100-双波段10-L.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01025-ZRWE-202206231025-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-00497-LXLI-202204211013-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-00705-ZHMI-202205231506-双波段-R-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S339-HXHU-202308211319-双波段10-L.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01172-LSLI-202207111022-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00117-MLQI-202209221010-双15-L.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-00718-HYFE-202205241110-双波段-R-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S160-FAHU-202209291039-双波段10-R.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01512-WYYU-2022082290934-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-00370-LXQI-202204021115-双波段-R-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00079-LYLI-202207051505-双15-R.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S254-LQXI-202304101630-双波段10-L.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02385-WAQU-202309211448-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01062-NWLI-202206290926-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00010-WYHU-202111221638-10-L.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01761-LQXI-202210181516-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-00819-WYJU-202206061623-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00115-ZCZH-202209131452-双15-R.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-00548-YWXI-202204291027双波段-R-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S390-YYQI-202311010931-双波段-10-L.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S294-SEQI-202306191313-双波段10-L.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-00339-HJYU-202203301011-双波段-R-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-0219-LSYU-202203111600-双波段-R-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00082-ZYPI-202207191447-双15-L.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S211-JLPI-202211301019-双波段10-R.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02012-LYYA-202307200834-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01952-PYRO-202302241626-双波段-R-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-00143-ZHQL-202208221130-双波段10-R.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-00824-ZHDI-202206070936-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01313-CLYI-2022072261023-双波段-R-D.bmp</t>
+  </si>
+  <si>
     <t>020-ZSSYX-01744-LIJI-202210140828-双波段-L-D.bmp</t>
   </si>
   <si>
-    <t>SCCDFY010-WHYI-202202281626-双波段10-L.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02274-LLLU-202309011023-R-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01590-CLSI-202209141029-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02227-OYXH-202305121024-L-D.bmp</t>
-  </si>
-  <si>
-    <t>KC7Q6A11.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00062-HWSH-202205241742-双15-L.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S289-LYFE-202306051510-双波段10-R.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-00699-YGME-202205230957-双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S277-ZMLA-202305221527-双波段10-L.bmp</t>
-  </si>
-  <si>
-    <t>KBRND4H1.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S249-CJYA-202303271432-双波段10-L.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S361-LJHA-202309111007-双波段10-L.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-00819-WYJU-202206061623-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00199-ZFNV-202306161427-双10-R.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02456-ZJLI-202310171444-L-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00082-ZYPI-202207191447-双15-L.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01363-WCLI-202207291427-双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S177-YYYI-202210211452-双波段10-R.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S398-JKDI-202311101042-双波段10-L.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S358-YZNA-202309051400-双波段10-L.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01447-SMMI-202208161032-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02007-LYFA-202307061037-R-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S190-HQYU-202211011636-双波段10-R.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-00828-LMQI-202206071057-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00059-PXFA-202205091826-双15-R.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01601-XYFE-202209160931-双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-00364-WZHU-202204020950-双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02471-GXQI-202310191540-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-00507-ZHLII-202204241651-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02322-LIYI-202309102048-L-D.bmp</t>
-  </si>
-  <si>
-    <t>KBRMXM11.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02285-LHDI-202306091012-L-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S397-YXXI-202311081100-双波段10-L.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-00571-LZNO-202205061447双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-00583-CXE-202205090924双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01886-LMYA-202302031043-双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-00266-YJSH-202203181503-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01907-LWQI-202302130901-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-00308-ZRWE-202203241532-双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02374-LYDA-202309190825-L-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S237-ZHLA-202302271515-双波段10-R.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-00063-WXLI-202204011056-双波段15-R.bmp</t>
+    <t>0571-ZKYZL-S248-LYXI-202303241027-双波段10-R.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-02219-JJMI-202308241942-R-D.bmp</t>
   </si>
   <si>
     <t>020-ZSSYX-00352-XFXI-202203311725-双波段-L-D.bmp</t>
   </si>
   <si>
-    <t>020-ZSSYX-00704-YAMI-202205231445-双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>KCJ2EDH1.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01475-LQYU-202208221056-双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00061-WDHU-202205101551-双15-R.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02444-LIQI-202310131008-R-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S160-FAHU-202209291039-双波段10-R.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-00353-YHHO-202204010832-双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-00990-YAXI-202206211131-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02033-LILU-202308011016-R-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-00073-YYHO-202204021513-双波段15-R.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02119-XWLI-202308230923-R-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-00314-HQHA-202203251011-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-0233-LMYU-202203150923-双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01842-LYJI-202301050839-双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00205-XFQI-202307271519-双10-L.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-00034-LXQI-202203281638-双波段10-L.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02331-ZJPI-202309111911-R-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-00335-RYXI-202203300905-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-00687-TMLI-202205200938-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00111-CZHU-202209051423-双15-R.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-00329-DJNI-202203281125-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02423-HXJU-202310081416-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01594-LWFA-202209150913-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02101-LXHU-202308211021-R-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01870-HLSI-202301291045-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02373-THME-202309181554-R-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-00522-HLPI-202204270925-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01172-LSLI-202207111022-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-00548-YWXI-202204291027双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02474-WJYI-202310201433-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02433-WQJU-202310101424-L-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S310-NFJU-202307171134-双波段10-R.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-00323-CGFE-202203281019-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S303-ZHXI-202307031511-双波段10-L.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-00359-CSDA-202204010956-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01568-ZYLI-202209081001-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-00620-LSXI-202205121509-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01994-ZHMI-202303071132-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-0219-LSYU-202203111600-双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01906-XSYA-202302101437-双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S339-HXHU-202308211319-双波段10-L.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S390-YYQI-202311010931-双波段-10-L.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-00897-WKME-202206140833-双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02314-CLHU-202309080935-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02465-HGXI-202310190820-L-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S313-WLPI-202307191144-双波段10-R.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01620-XYZH-202209201045-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02268-DYFE-202307101521-R-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S284-NFHO-202305291449-双波段10-L.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S162-YAME-202210101614-双波段10-L.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02463-LYLI-202310181604-L-D.bmp</t>
-  </si>
-  <si>
     <t>020-ZSSYX-02242-CLFE-202308291633-L-D.bmp</t>
   </si>
   <si>
-    <t>020-ZSSYX-02422-SCYU-202310080854-R-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-00062-LHFA-202203311555-双波段15-R.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02219-JJMI-202308241942-R-D.bmp</t>
-  </si>
-  <si>
-    <t>KE7ME9H1.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02109-YSQU-202305250913-R-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01573-HYYU-202209090838-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00054-HUCH-202204201733-双15-L.bmp</t>
-  </si>
-  <si>
-    <t>KE9JEXH1.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00094-SGJU-202208120921-双15-L.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-00867-LHME-202206100855-双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S185-ZQLI-202210311548-双波段10-L.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02453-SMME-202310161015-R-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02342-LMER-202309131500-L-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00078-ZJZH-202207051201-双15-L.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01767-TCXI-202210191613-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01025-ZRWE-202206231025-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00104-JXFE-202208231541-双15-R.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01479-CDLI-202208230924-双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02249-LZDA-202308301052-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-00367-YLRO-202204021039-双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00097-LHLI-202208160933-双15-L.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-00718-HYFE-202205241110-双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01777-YYPI-202210240911-双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>KBPL1GH1.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01934-ZEJI-202302201052-双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01966-ZHYA-202303010905-双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S275-FAPI-202305191624-双波段10-R.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-00477-LXFE-202204181143-双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00123-XQWU-202209271048-双15-L.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S304-ZXLI-202307031533-双波段10-L.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-00614-WUTA-202205120909-双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02283-FFFE-202309040919-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01895-ZAPI-202302081010-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01922-LHLI-202302160923-双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-00431-ZCTI-202204141055-双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02390-YXFA-202309220843-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-00866-LXJU-202206100836-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>KC3PPB11.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00072-HYPI-202206201330-双15-R.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01704-HERO-202210091009-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01831-LIPI-202212270922-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-00470-XWJU-202204180854-双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02455-YXYI-202310171406-R-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-00370-LXQI-202204021115-双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01597-ZHXI-202209151016-双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01715-GUYI-202210101110-双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02351-ZCPI-202309141846-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02313-LJLI-202309080914-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02281-WUXI-202309021654-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-00475-CCLI-202204181038-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>KCFNSE11.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00086-WYQI-202207271340-双15-L.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02362-WHME-202309180851-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01654-HSJU-202209260935-双波段-L-D.bmp</t>
+    <t>020-ZSSYX-00311-LSFA-202203250859-双波段-R-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01629-WUYI-202209211439-双波段-R-D.bmp</t>
   </si>
   <si>
     <t>020-ZSSYX-01770-YAQI-202210201457-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-00659-CYWA-202205171151-双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01828-XYTI-202212200916-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-00445-XHFA-202204141526-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02087-LILI-202308181107-R-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S403-CXLI-202311150958-双波段10-R.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S301-LBQI-202307031012-双波段10-L.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01548-TYXU-2022091440-双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01941-GQWE-202302221101-双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-00339-HJYU-202203301011-双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00041-XQJU-202203021159-双15-R.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01839-XYQU-202301030947-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01817-ZALI-202212070958-双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>SCCDFY003-MLZH-202202221136-双波段10-R.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01178-WWJU-202207111628-双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S169-XZYI-202210171724-双波段10-L.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02206-KHXI-202305110924-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-00332-WLJU-202203281159-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>KE3K8FH1.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02431-FGME-202310100858-R-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S175-LIYU-202210201512-双波段10-R.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S212-LCJI-202212080943-双波段10-L.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-00664-SZFE-202205171619-双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00115-ZCZH-202209131452-双15-R.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S278-MSNV-202305221622-双波段10-L.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01873-JYSO-202301301444-双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S203-SSYI-202211141555-双波段10-L.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01882-GHRO-202302021027-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00177-YHBI-202304071617-双15-L.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00027-CHXI-202201121658-双波段10-R.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S294-SEQI-202306191313-双波段10-L.bmp</t>
-  </si>
-  <si>
-    <t>KCFK7S11.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02428-HGDI-202310091459-R-D.bmp</t>
-  </si>
-  <si>
-    <t>KBKJBDH1.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02239-LIQI-202308290919-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02205-ZJXI-202306141326-R-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02088-XYYA-202306150908-R-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-00662-ZYYU-202205171532-双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01854-HZQI-202301120917-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-00036-CXZH-202203291034-双波段10-R.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S248-LYXI-202303241027-双波段10-R.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01062-NWLI-202206290926-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00016-CYYA-202112071301-双波段10-R.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00081-TXFE-202207191033-双15-L.bmp</t>
-  </si>
-  <si>
-    <t>ZJSYF00002-CFHU-202110111442-双波段-L.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02302-LXZH-202309061701-R-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-00504-LYFE-202204241000-双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02085-TGRO-202307071703-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01591-FYLA-202209141044-双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S211-JLPI-202211301019-双波段10-R.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S254-LQXI-202304101630-双波段10-L.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01952-PYRO-202302241626-双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>ZJSYF00006-YUJI-202110261103-双波段-L.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00079-LYLI-202207051505-双15-R.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01016-LQTA-202206221648-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S347-JJQI-202308281410-双波段10-R.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01592-WXDA-202209141049-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02219-JJMI-202308241947-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02036-CGHU-202308011658-R-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-00402-LUJI-202204080853-双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S313-WLPI-202307191139-双波段10-L.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02208-ZYHU-202308221525-R-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S383-LHPI-202310201125-双波段10-R.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S280-YJYU-202305261232-双波段10-L.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S370-WJXI-202309221435-双波段10-L.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02311-GZHU-202304271013-L-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S169-XZYI-202210171728-双波段10-R.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-00628-HEFA-202205131008-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01593-XYDA-202209141103-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02313-LJLI-202309080918-R-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S392-TJFE-202311011023-双波段10-R.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S232-XCYI-202302201435-双波段10-L.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-00824-ZHDI-202206070936-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01470-YMZH-202208220850-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-00857-CYMA-202206091035-双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02334-HWHO-202309121016-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01500-WSYU-2022082251513-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-00587-CCYU-202205091030双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01803-LWXI-202210311000-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02284-FUYU-202309040936-R-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01859-HLJI-202301130934-双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01537-HWJU-202209020925-双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01512-WYYU-2022082290934-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02329-LSZH-202309111518-R-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S368-TMME-202309221114-双波段10-R.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-00432-CHRU-202204141114-双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02003-WHQU-202307141043-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01453-WAFA-202208170909-双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01217-ZQLI-202207141539-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02385-WAQU-202309211448-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-00880-ZSWE-202206101549-双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S192-WYJI-202211031420-双波段10-R.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02075-HFXI-202308161436-R-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02287-LQRO-202309050907-R-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S365-XMJI-202309201302-双波段10-R.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH00043-ZSFE-202203080949-双15-L.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S238-ZXYI-202302281015-双波段10-L.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-00290-XIXI-202203221604-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-00832-LMHU-202206071556-双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S334-SXYA-202308141339-双波段10-L.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-00992-ZZZH-202206211153-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01565-HJXI-202209080903-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-00374-LCZH-202204021443-双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S355-RSQI-202309041347-双波段10-R.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-00791-TAYI-202206011623-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01832-ZCYU-202212270938-双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S214-YXJI-202212091047-双波段10-R.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-00616-FSHU-202205120945-双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02094-ZLDA-202306121101-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01761-LQXI-202210181516-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01629-WUYI-202209211439-双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01476-ZBLI-202208221359-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S210-PZYA-202211231419-双波段10-L.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-00497-LXLI-202204211013-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S264-JCXI-202304241152-双波段10-R.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02025-LMAI-202307261110-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-00884-LJLA-202206131008-双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02076-TSJU-202308161457-R-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01313-CLYI-2022072261023-双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02240-HWYU-202308291417-R-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01587-YLFA-202209140854-双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-00501-LZJU-202204211600-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02445-STSH-202310131117-L-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00117-MLQI-202209221010-双15-L.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-00553-YSJU-202205050906双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00047-ZYLA-202203301429-双15-L.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01445-ZYMI-202208150931-双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-00756-ZHNE-2022052301036-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02290-LHME-202309051022-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-0192-LYJI-202203081059-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-00305-CWME-202203240949-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-00883-WXLI-202206130945-双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00010-WYHU-202111221638-10-L.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S170-SQHO-202210181104-双波段10-L.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-00338-HJYU-202203300942-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02469-LJXI-202310191431-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01838-CYPI-202301030937-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-00697-ZYLI-202205230920-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01510-JHYI-2022082290821-双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-00747-DJLI-202205261541-双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-00593-CME-202205091626双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02364-CXBE-202309181001-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02116-WUHA-202304201532-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01936-MMDI-202302201451-双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01969-YWQI-202303010942-双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-00541-NLNA-202204281140-双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-00312-LIHU-202203250935-双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>KBBNR6H1.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02044-LHJU-202308070909-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02090-HXME-202304270927-R-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02450-LYZH-202310160913-R-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-00315-LGFA-202203251024-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01180-QJME-202207120933-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00103-WSXI-202208231453-双15-R.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01610-ZFYI-202209190948-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02392-CLCH-202309220944-R-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02454-DYXI-202310161416-R-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02012-LYYA-202307200834-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02438-LAPA-202310120855-L-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S213-WQYU-202212091035-双波段10-R.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-00515-LYLI-202204260904-双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-00143-ZHQL-202208221130-双波段10-R.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S137-CXLI-202208231730-双波段10-R.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02339-LYME-202309131057-R-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01695-LYME-202210081046-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01507-GYME-2022082261015-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S181-SYLI-202210251640-双波段10-R.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-00705-ZHMI-202205231506-双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S396-HXYA-202311071058-双波段10-L.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-00647-CWE-202205161524-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01552-HLME-2022091541-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02261-LLHU-202308100942-L-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S363-ZHJU-202309111556-双波段10-L.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S256-GALI-202304111509-双波段10-R.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00108-ZLLI-202208301140-双15-L.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-00886-GDDA-202206131107-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01866-HYHO-202301191048-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-00811-LIME-202206060951-双波段-L-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02267-CAYU-202307101059-L-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S261-YXLI-202304171023-双波段10-L.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-00311-LSFA-202203250859-双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-00508-TYLA-202204250851-双波段-R-D.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-02209-CJLI-202308232112-L-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZKYZL-S218-DFFE-202301041403-双波段10-L.bmp</t>
-  </si>
-  <si>
-    <t>020-ZSSYX-01437-QCHU-202208111051-双波段-L-D.bmp</t>
   </si>
 </sst>
 </file>
@@ -1391,7 +1388,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D337"/>
+  <dimension ref="A1:D336"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1416,13 +1413,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.4971522986888885</v>
+        <v>0.4807793796062469</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1430,13 +1427,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.4126710891723633</v>
+        <v>0.6643968224525452</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1444,13 +1441,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.4249140322208405</v>
+        <v>0.5735689997673035</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1458,13 +1455,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.5020828247070312</v>
+        <v>0.6949251294136047</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1472,7 +1469,7 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.4289309680461884</v>
+        <v>0.402258574962616</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1486,13 +1483,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.5020828247070312</v>
+        <v>0.7265826463699341</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1500,13 +1497,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.467417448759079</v>
+        <v>0.4075958430767059</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1514,7 +1511,7 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.4541816413402557</v>
+        <v>0.481410801410675</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1528,7 +1525,7 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.4970657527446747</v>
+        <v>0.4627760350704193</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1542,13 +1539,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.5020828247070312</v>
+        <v>0.4353391826152802</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1556,13 +1553,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.4731682538986206</v>
+        <v>0.6218563914299011</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1570,13 +1567,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.5020828247070312</v>
+        <v>0.5964546203613281</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1584,7 +1581,7 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.4905901551246643</v>
+        <v>0.3814167976379395</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1598,13 +1595,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0.4345381557941437</v>
+        <v>0.7569751739501953</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1612,13 +1609,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0.4919194579124451</v>
+        <v>0.4550606608390808</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1626,10 +1623,10 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>0.4541375935077667</v>
+        <v>0.689342737197876</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1640,7 +1637,7 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>0.5020828247070312</v>
+        <v>0.8697501420974731</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1654,13 +1651,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>0.4541053473949432</v>
+        <v>0.4894249141216278</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1668,13 +1665,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>0.5020828247070312</v>
+        <v>0.4614969491958618</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1682,7 +1679,7 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>0.4759066700935364</v>
+        <v>0.4077907502651215</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1696,10 +1693,10 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>0.4729252457618713</v>
+        <v>0.7054598927497864</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1710,10 +1707,10 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>0.5020828247070312</v>
+        <v>0.4222037792205811</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1724,10 +1721,10 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>0.4450908601284027</v>
+        <v>0.5079667568206787</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1738,10 +1735,10 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>0.4730791449546814</v>
+        <v>0.7508764863014221</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -1752,10 +1749,10 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>0.5020828247070312</v>
+        <v>0.3954256176948547</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1766,7 +1763,7 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>0.4056795537471771</v>
+        <v>0.4083644151687622</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1780,13 +1777,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>0.3661180436611176</v>
+        <v>0.4533434808254242</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1794,10 +1791,10 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>0.46366286277771</v>
+        <v>0.525246262550354</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1808,13 +1805,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>0.4415140151977539</v>
+        <v>0.7284883856773376</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1822,10 +1819,10 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>0.5020828247070312</v>
+        <v>0.4967639744281769</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1836,13 +1833,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>0.5020828247070312</v>
+        <v>0.5106056928634644</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1850,13 +1847,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>0.5020828247070312</v>
+        <v>0.4669208228588104</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1864,13 +1861,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>0.5020828247070312</v>
+        <v>0.4240394830703735</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1878,10 +1875,10 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>0.5020828247070312</v>
+        <v>0.4384552240371704</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -1892,10 +1889,10 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>0.4642567038536072</v>
+        <v>0.6264898180961609</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1906,13 +1903,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>0.4583209455013275</v>
+        <v>0.7037792205810547</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1920,13 +1917,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>0.5020828247070312</v>
+        <v>0.4770040214061737</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1934,13 +1931,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>0.4814373254776001</v>
+        <v>0.4123869240283966</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1948,13 +1945,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>0.4717336297035217</v>
+        <v>0.4588421881198883</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1962,13 +1959,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>0.4870001077651978</v>
+        <v>0.6242362856864929</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1976,7 +1973,7 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>0.4140850305557251</v>
+        <v>0.4682551920413971</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1990,7 +1987,7 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>0.4627697169780731</v>
+        <v>0.4940316379070282</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -2004,7 +2001,7 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>0.5020828247070312</v>
+        <v>0.5519962310791016</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -2018,7 +2015,7 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>0.4343427717685699</v>
+        <v>0.3987422585487366</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -2032,13 +2029,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>0.3943371474742889</v>
+        <v>0.6638060212135315</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2046,7 +2043,7 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>0.4887848794460297</v>
+        <v>0.4596376121044159</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -2060,10 +2057,10 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>0.5020828247070312</v>
+        <v>0.4355823993682861</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -2074,13 +2071,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>0.399741530418396</v>
+        <v>0.3751797378063202</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2088,13 +2085,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>0.4516398012638092</v>
+        <v>0.4153154492378235</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2102,10 +2099,10 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>0.5020828247070312</v>
+        <v>0.3681548237800598</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -2116,7 +2113,7 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>0.4849599301815033</v>
+        <v>0.4944045841693878</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -2130,13 +2127,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>0.4285458326339722</v>
+        <v>0.4374322295188904</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2144,13 +2141,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>0.373068779706955</v>
+        <v>0.4225417375564575</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2158,13 +2155,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>0.492025762796402</v>
+        <v>0.4747657775878906</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2172,10 +2169,10 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>0.4091138541698456</v>
+        <v>0.695543646812439</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -2186,10 +2183,10 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>0.5020828247070312</v>
+        <v>0.4534170925617218</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -2200,13 +2197,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>0.5020828247070312</v>
+        <v>0.4748983383178711</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2214,7 +2211,7 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>0.3951259553432465</v>
+        <v>0.390421599149704</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -2228,7 +2225,7 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>0.4867535829544067</v>
+        <v>0.4765666425228119</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -2242,13 +2239,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>0.5020828247070312</v>
+        <v>0.7030970454216003</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2256,13 +2253,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>0.448529452085495</v>
+        <v>0.4144026637077332</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2270,13 +2267,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>0.5020828247070312</v>
+        <v>0.6348034739494324</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2284,13 +2281,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>0.4558883309364319</v>
+        <v>0.4629235565662384</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2298,13 +2295,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>0.5020828247070312</v>
+        <v>0.4454349875450134</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2312,13 +2309,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>0.470046192407608</v>
+        <v>0.412674754858017</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2326,7 +2323,7 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>0.4109369814395905</v>
+        <v>0.4553060531616211</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -2340,13 +2337,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>0.5020828247070312</v>
+        <v>0.3632885217666626</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2354,7 +2351,7 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>0.4575443863868713</v>
+        <v>0.402401328086853</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -2368,13 +2365,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>0.5020828247070312</v>
+        <v>0.4248130321502686</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2382,13 +2379,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>0.5020828247070312</v>
+        <v>0.4037822484970093</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2396,13 +2393,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>0.5020828247070312</v>
+        <v>0.4176240861415863</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2410,7 +2407,7 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>0.4480901956558228</v>
+        <v>0.4902733266353607</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -2424,10 +2421,10 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>0.3982996940612793</v>
+        <v>0.8671218752861023</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -2438,13 +2435,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>0.47005695104599</v>
+        <v>0.4587193429470062</v>
       </c>
       <c r="C75">
         <v>0</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2452,10 +2449,10 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>0.4929991960525513</v>
+        <v>0.5671747922897339</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -2466,13 +2463,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>0.5020828247070312</v>
+        <v>0.4612264633178711</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2480,13 +2477,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>0.4796063601970673</v>
+        <v>0.4410394728183746</v>
       </c>
       <c r="C78">
         <v>0</v>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2494,13 +2491,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>0.4013927578926086</v>
+        <v>0.4106136560440063</v>
       </c>
       <c r="C79">
         <v>0</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2508,13 +2505,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>0.5020828247070312</v>
+        <v>0.6005408763885498</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2522,13 +2519,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>0.4226172268390656</v>
+        <v>0.434220552444458</v>
       </c>
       <c r="C81">
         <v>0</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2536,7 +2533,7 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>0.4220012724399567</v>
+        <v>0.4175277948379517</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -2550,13 +2547,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>0.4769247174263</v>
+        <v>0.4483701288700104</v>
       </c>
       <c r="C83">
         <v>0</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2564,13 +2561,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>0.4987934827804565</v>
+        <v>0.7749424576759338</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2578,13 +2575,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>0.4271954596042633</v>
+        <v>0.7729293704032898</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2592,7 +2589,7 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>0.4911879599094391</v>
+        <v>0.4550170004367828</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -2606,7 +2603,7 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>0.5020828247070312</v>
+        <v>0.5106056928634644</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -2620,7 +2617,7 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>0.4892649352550507</v>
+        <v>0.4470216631889343</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -2634,13 +2631,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>0.4920823276042938</v>
+        <v>0.4041158258914948</v>
       </c>
       <c r="C89">
         <v>0</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2648,13 +2645,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>0.5020828247070312</v>
+        <v>0.4946011602878571</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2662,13 +2659,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>0.5020828247070312</v>
+        <v>0.6371489763259888</v>
       </c>
       <c r="C91">
         <v>1</v>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2676,13 +2673,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>0.4093318283557892</v>
+        <v>0.7371747493743896</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2690,13 +2687,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>0.5020828247070312</v>
+        <v>0.4738667905330658</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2704,7 +2701,7 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>0.496060311794281</v>
+        <v>0.4550361633300781</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -2718,10 +2715,10 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>0.5020828247070312</v>
+        <v>0.4579086601734161</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D95">
         <v>1</v>
@@ -2732,7 +2729,7 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>0.4613256454467773</v>
+        <v>0.3381493389606476</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -2746,7 +2743,7 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>0.5020828247070312</v>
+        <v>0.5048822164535522</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -2760,13 +2757,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>0.5020828247070312</v>
+        <v>0.4329568445682526</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2774,13 +2771,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>0.5020828247070312</v>
+        <v>0.5542030334472656</v>
       </c>
       <c r="C99">
         <v>1</v>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2788,7 +2785,7 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>0.4356856644153595</v>
+        <v>0.4176240861415863</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -2802,13 +2799,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>0.5020828247070312</v>
+        <v>0.4599972367286682</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2816,7 +2813,7 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>0.5020828247070312</v>
+        <v>0.5207973122596741</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -2830,13 +2827,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>0.5020828247070312</v>
+        <v>0.4365071356296539</v>
       </c>
       <c r="C103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2844,13 +2841,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>0.4231461882591248</v>
+        <v>0.7437301278114319</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2858,10 +2855,10 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>0.3989312648773193</v>
+        <v>0.506976306438446</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D105">
         <v>1</v>
@@ -2872,13 +2869,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>0.5005629658699036</v>
+        <v>0.4195989072322845</v>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2886,7 +2883,7 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>0.4748539924621582</v>
+        <v>0.4579823315143585</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -2900,7 +2897,7 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>0.3732140958309174</v>
+        <v>0.4476849734783173</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -2914,13 +2911,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>0.4768779873847961</v>
+        <v>0.5042067766189575</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2928,10 +2925,10 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>0.5020828247070312</v>
+        <v>0.4580174088478088</v>
       </c>
       <c r="C110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -2942,13 +2939,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>0.5020828247070312</v>
+        <v>0.4665996730327606</v>
       </c>
       <c r="C111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2956,13 +2953,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>0.4955649971961975</v>
+        <v>0.3911754786968231</v>
       </c>
       <c r="C112">
         <v>0</v>
       </c>
       <c r="D112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2970,13 +2967,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>0.4418665170669556</v>
+        <v>0.7935667634010315</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2984,13 +2981,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>0.4444741308689117</v>
+        <v>0.7348443269729614</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2998,7 +2995,7 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>0.2878472208976746</v>
+        <v>0.4388450682163239</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -3012,7 +3009,7 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>0.4472797214984894</v>
+        <v>0.4611527323722839</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -3026,13 +3023,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>0.5015094876289368</v>
+        <v>0.3786191344261169</v>
       </c>
       <c r="C117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3040,13 +3037,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>0.4368341267108917</v>
+        <v>0.4367505311965942</v>
       </c>
       <c r="C118">
         <v>0</v>
       </c>
       <c r="D118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3054,13 +3051,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>0.3715738952159882</v>
+        <v>0.7853717803955078</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3068,13 +3065,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>0.4864717423915863</v>
+        <v>0.8322049379348755</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3082,10 +3079,10 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>0.5020828247070312</v>
+        <v>0.4807064235210419</v>
       </c>
       <c r="C121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D121">
         <v>1</v>
@@ -3096,10 +3093,10 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>0.5020828247070312</v>
+        <v>0.4058326482772827</v>
       </c>
       <c r="C122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -3110,7 +3107,7 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>0.4982794225215912</v>
+        <v>0.4967233240604401</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -3124,13 +3121,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>0.4940181374549866</v>
+        <v>0.4390400350093842</v>
       </c>
       <c r="C124">
         <v>0</v>
       </c>
       <c r="D124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3138,10 +3135,10 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>0.5020828247070312</v>
+        <v>0.4191169738769531</v>
       </c>
       <c r="C125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -3152,13 +3149,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>0.4083716869354248</v>
+        <v>0.34742271900177</v>
       </c>
       <c r="C126">
         <v>0</v>
       </c>
       <c r="D126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3166,7 +3163,7 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>0.4656945466995239</v>
+        <v>0.3924959897994995</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -3180,7 +3177,7 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>0.4972496628761292</v>
+        <v>0.4455327987670898</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -3194,7 +3191,7 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>0.3968425989151001</v>
+        <v>0.4664020240306854</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -3208,7 +3205,7 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>0.4893117547035217</v>
+        <v>0.4308202564716339</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -3222,7 +3219,7 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>0.4995944201946259</v>
+        <v>0.4653893709182739</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -3236,10 +3233,10 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>0.5020828247070312</v>
+        <v>0.4354364275932312</v>
       </c>
       <c r="C132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -3250,7 +3247,7 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>0.409369170665741</v>
+        <v>0.4803391396999359</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -3264,10 +3261,10 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>0.5020828247070312</v>
+        <v>0.4506718814373016</v>
       </c>
       <c r="C134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D134">
         <v>1</v>
@@ -3278,10 +3275,10 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>0.5020828247070312</v>
+        <v>0.4752159118652344</v>
       </c>
       <c r="C135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -3292,13 +3289,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>0.5020828247070312</v>
+        <v>0.4676412045955658</v>
       </c>
       <c r="C136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3306,7 +3303,7 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>0.5020828247070312</v>
+        <v>0.9115415811538696</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -3320,7 +3317,7 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>0.4493738412857056</v>
+        <v>0.4349013566970825</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -3334,10 +3331,10 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>0.5020828247070312</v>
+        <v>0.4338316023349762</v>
       </c>
       <c r="C139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D139">
         <v>0</v>
@@ -3348,13 +3345,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>0.4785108268260956</v>
+        <v>0.5156118273735046</v>
       </c>
       <c r="C140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3362,7 +3359,7 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>0.5020828247070312</v>
+        <v>0.7401043772697449</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -3376,13 +3373,13 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>0.416394829750061</v>
+        <v>0.5193131566047668</v>
       </c>
       <c r="C142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3390,10 +3387,10 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>0.5020828247070312</v>
+        <v>0.4621610343456268</v>
       </c>
       <c r="C143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -3404,7 +3401,7 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>0.4097482264041901</v>
+        <v>0.4065487086772919</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -3418,10 +3415,10 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>0.5020828247070312</v>
+        <v>0.428540825843811</v>
       </c>
       <c r="C145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D145">
         <v>0</v>
@@ -3432,10 +3429,10 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>0.5020828247070312</v>
+        <v>0.4175759553909302</v>
       </c>
       <c r="C146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -3446,13 +3443,13 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>0.4893117547035217</v>
+        <v>0.4225900769233704</v>
       </c>
       <c r="C147">
         <v>0</v>
       </c>
       <c r="D147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3460,7 +3457,7 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>0.5020828247070312</v>
+        <v>0.6612415313720703</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -3474,13 +3471,13 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>0.5020828247070312</v>
+        <v>0.4057372212409973</v>
       </c>
       <c r="C149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3488,7 +3485,7 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>0.4152328968048096</v>
+        <v>0.4501329660415649</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -3502,13 +3499,13 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>0.4891946315765381</v>
+        <v>0.8261522054672241</v>
       </c>
       <c r="C151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3516,7 +3513,7 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>0.3876408934593201</v>
+        <v>0.3438418507575989</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -3530,7 +3527,7 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>0.5020828247070312</v>
+        <v>0.6668797135353088</v>
       </c>
       <c r="C153">
         <v>1</v>
@@ -3544,7 +3541,7 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>0.4666830897331238</v>
+        <v>0.4592598974704742</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -3558,7 +3555,7 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>0.4859447777271271</v>
+        <v>0.441771388053894</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -3572,7 +3569,7 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>0.4707275629043579</v>
+        <v>0.4565088748931885</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -3586,13 +3583,13 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>0.5020828247070312</v>
+        <v>0.5753774046897888</v>
       </c>
       <c r="C157">
         <v>1</v>
       </c>
       <c r="D157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3600,13 +3597,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>0.4199384450912476</v>
+        <v>0.468051016330719</v>
       </c>
       <c r="C158">
         <v>0</v>
       </c>
       <c r="D158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3614,13 +3611,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>0.4940300285816193</v>
+        <v>0.740420937538147</v>
       </c>
       <c r="C159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3628,13 +3625,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>0.4598022401332855</v>
+        <v>0.4446040689945221</v>
       </c>
       <c r="C160">
         <v>0</v>
       </c>
       <c r="D160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3642,7 +3639,7 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>0.5020828247070312</v>
+        <v>0.8581685423851013</v>
       </c>
       <c r="C161">
         <v>1</v>
@@ -3656,7 +3653,7 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>0.3821256756782532</v>
+        <v>0.454569935798645</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -3670,13 +3667,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>0.4508470594882965</v>
+        <v>0.5013633370399475</v>
       </c>
       <c r="C163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3684,10 +3681,10 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>0.4873054027557373</v>
+        <v>0.728215217590332</v>
       </c>
       <c r="C164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D164">
         <v>0</v>
@@ -3698,13 +3695,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>0.5020828247070312</v>
+        <v>0.6806327700614929</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
       <c r="D165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3712,13 +3709,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>0.4978018403053284</v>
+        <v>0.347153514623642</v>
       </c>
       <c r="C166">
         <v>0</v>
       </c>
       <c r="D166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3726,13 +3723,13 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>0.4902529120445251</v>
+        <v>0.4651176929473877</v>
       </c>
       <c r="C167">
         <v>0</v>
       </c>
       <c r="D167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3740,10 +3737,10 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>0.4999926090240479</v>
+        <v>0.6583125591278076</v>
       </c>
       <c r="C168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D168">
         <v>0</v>
@@ -3754,13 +3751,13 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>0.5020828247070312</v>
+        <v>0.4650436341762543</v>
       </c>
       <c r="C169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3768,13 +3765,13 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>0.4176144003868103</v>
+        <v>0.54030442237854</v>
       </c>
       <c r="C170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3782,13 +3779,13 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>0.5020828247070312</v>
+        <v>0.5011518001556396</v>
       </c>
       <c r="C171">
         <v>1</v>
       </c>
       <c r="D171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3796,13 +3793,13 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>0.5020828247070312</v>
+        <v>0.4525834023952484</v>
       </c>
       <c r="C172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3810,7 +3807,7 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>0.4853315949440002</v>
+        <v>0.4240878224372864</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -3824,13 +3821,13 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>0.5020828247070312</v>
+        <v>0.5498136281967163</v>
       </c>
       <c r="C174">
         <v>1</v>
       </c>
       <c r="D174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3838,7 +3835,7 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>0.5020828247070312</v>
+        <v>0.5190541744232178</v>
       </c>
       <c r="C175">
         <v>1</v>
@@ -3852,7 +3849,7 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>0.476304829120636</v>
+        <v>0.4135207831859589</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -3866,13 +3863,13 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>0.4843987822532654</v>
+        <v>0.6356363296508789</v>
       </c>
       <c r="C177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3880,7 +3877,7 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>0.417381227016449</v>
+        <v>0.4595794081687927</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -3894,10 +3891,10 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>0.5020828247070312</v>
+        <v>0.4808132350444794</v>
       </c>
       <c r="C179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D179">
         <v>0</v>
@@ -3908,7 +3905,7 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>0.5020828247070312</v>
+        <v>0.6283982992172241</v>
       </c>
       <c r="C180">
         <v>1</v>
@@ -3922,13 +3919,13 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>0.3957286775112152</v>
+        <v>0.6674852967262268</v>
       </c>
       <c r="C181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3936,10 +3933,10 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>0.4875167906284332</v>
+        <v>0.8120313882827759</v>
       </c>
       <c r="C182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D182">
         <v>1</v>
@@ -3950,13 +3947,13 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>0.4559567868709564</v>
+        <v>0.4369576573371887</v>
       </c>
       <c r="C183">
         <v>0</v>
       </c>
       <c r="D183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3964,13 +3961,13 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>0.4991413950920105</v>
+        <v>0.4029249548912048</v>
       </c>
       <c r="C184">
         <v>0</v>
       </c>
       <c r="D184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3978,13 +3975,13 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>0.5020828247070312</v>
+        <v>0.444359689950943</v>
       </c>
       <c r="C185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3992,10 +3989,10 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>0.493569403886795</v>
+        <v>0.6643338799476624</v>
       </c>
       <c r="C186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D186">
         <v>1</v>
@@ -4006,10 +4003,10 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>0.5020828247070312</v>
+        <v>0.4552569985389709</v>
       </c>
       <c r="C187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D187">
         <v>0</v>
@@ -4020,13 +4017,13 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>0.5020828247070312</v>
+        <v>0.4573682844638824</v>
       </c>
       <c r="C188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4034,13 +4031,13 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>0.5020828247070312</v>
+        <v>0.8010045289993286</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4048,13 +4045,13 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>0.4271839261054993</v>
+        <v>0.4671679139137268</v>
       </c>
       <c r="C190">
         <v>0</v>
       </c>
       <c r="D190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4062,10 +4059,10 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>0.5020828247070312</v>
+        <v>0.432033896446228</v>
       </c>
       <c r="C191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D191">
         <v>0</v>
@@ -4076,10 +4073,10 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>0.5013709664344788</v>
+        <v>0.4158441722393036</v>
       </c>
       <c r="C192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D192">
         <v>1</v>
@@ -4090,7 +4087,7 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>0.4932931065559387</v>
+        <v>0.434220552444458</v>
       </c>
       <c r="C193">
         <v>0</v>
@@ -4104,10 +4101,10 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>0.4043401181697845</v>
+        <v>0.5158153176307678</v>
       </c>
       <c r="C194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D194">
         <v>0</v>
@@ -4118,10 +4115,10 @@
         <v>197</v>
       </c>
       <c r="B195">
-        <v>0.4799376130104065</v>
+        <v>0.8545302152633667</v>
       </c>
       <c r="C195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D195">
         <v>0</v>
@@ -4132,10 +4129,10 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>0.4542463719844818</v>
+        <v>0.7129677534103394</v>
       </c>
       <c r="C196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D196">
         <v>0</v>
@@ -4146,10 +4143,10 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>0.4733696281909943</v>
+        <v>0.6668291687965393</v>
       </c>
       <c r="C197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D197">
         <v>0</v>
@@ -4160,10 +4157,10 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>0.4999700784683228</v>
+        <v>0.7625216841697693</v>
       </c>
       <c r="C198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D198">
         <v>1</v>
@@ -4174,7 +4171,7 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>0.3962816894054413</v>
+        <v>0.4541529417037964</v>
       </c>
       <c r="C199">
         <v>0</v>
@@ -4188,13 +4185,13 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>0.4554518163204193</v>
+        <v>0.4482232630252838</v>
       </c>
       <c r="C200">
         <v>0</v>
       </c>
       <c r="D200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4202,10 +4199,10 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>0.4757685959339142</v>
+        <v>0.6465502381324768</v>
       </c>
       <c r="C201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D201">
         <v>0</v>
@@ -4216,13 +4213,13 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>0.4988197684288025</v>
+        <v>0.4824215173721313</v>
       </c>
       <c r="C202">
         <v>0</v>
       </c>
       <c r="D202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4230,10 +4227,10 @@
         <v>205</v>
       </c>
       <c r="B203">
-        <v>0.4949035942554474</v>
+        <v>0.8412936329841614</v>
       </c>
       <c r="C203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D203">
         <v>1</v>
@@ -4244,13 +4241,13 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>0.5020828247070312</v>
+        <v>0.4397713243961334</v>
       </c>
       <c r="C204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4258,13 +4255,13 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>0.4788487255573273</v>
+        <v>0.4626038372516632</v>
       </c>
       <c r="C205">
         <v>0</v>
       </c>
       <c r="D205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4272,13 +4269,13 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>0.4532883167266846</v>
+        <v>0.4327867925167084</v>
       </c>
       <c r="C206">
         <v>0</v>
       </c>
       <c r="D206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4286,13 +4283,13 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>0.4346603453159332</v>
+        <v>0.4578840434551239</v>
       </c>
       <c r="C207">
         <v>0</v>
       </c>
       <c r="D207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4300,10 +4297,10 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>0.5020828247070312</v>
+        <v>0.3613680303096771</v>
       </c>
       <c r="C208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D208">
         <v>0</v>
@@ -4314,13 +4311,13 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>0.3814870119094849</v>
+        <v>0.7129189968109131</v>
       </c>
       <c r="C209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4328,13 +4325,13 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>0.5020828247070312</v>
+        <v>0.7694488763809204</v>
       </c>
       <c r="C210">
         <v>1</v>
       </c>
       <c r="D210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4342,7 +4339,7 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>0.4927572011947632</v>
+        <v>0.4044017791748047</v>
       </c>
       <c r="C211">
         <v>0</v>
@@ -4356,7 +4353,7 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>0.4374474585056305</v>
+        <v>0.4086991846561432</v>
       </c>
       <c r="C212">
         <v>0</v>
@@ -4370,7 +4367,7 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>0.4162020981311798</v>
+        <v>0.452951192855835</v>
       </c>
       <c r="C213">
         <v>0</v>
@@ -4384,10 +4381,10 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>0.5020828247070312</v>
+        <v>0.4028297364711761</v>
       </c>
       <c r="C214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D214">
         <v>1</v>
@@ -4398,13 +4395,13 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>0.4439792037010193</v>
+        <v>0.5149326920509338</v>
       </c>
       <c r="C215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4412,10 +4409,10 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>0.5020828247070312</v>
+        <v>0.4723757803440094</v>
       </c>
       <c r="C216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D216">
         <v>1</v>
@@ -4426,13 +4423,13 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>0.4695058166980743</v>
+        <v>0.4434314966201782</v>
       </c>
       <c r="C217">
         <v>0</v>
       </c>
       <c r="D217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4440,13 +4437,13 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>0.5020828247070312</v>
+        <v>0.414979100227356</v>
       </c>
       <c r="C218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4454,10 +4451,10 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>0.4793162643909454</v>
+        <v>0.5121340751647949</v>
       </c>
       <c r="C219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D219">
         <v>1</v>
@@ -4468,7 +4465,7 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>0.3741418719291687</v>
+        <v>0.4573682844638824</v>
       </c>
       <c r="C220">
         <v>0</v>
@@ -4482,13 +4479,13 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>0.2462231516838074</v>
+        <v>0.5078880786895752</v>
       </c>
       <c r="C221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4496,10 +4493,10 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>0.5020828247070312</v>
+        <v>0.342503547668457</v>
       </c>
       <c r="C222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D222">
         <v>0</v>
@@ -4510,7 +4507,7 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>0.4569003283977509</v>
+        <v>0.3860032558441162</v>
       </c>
       <c r="C223">
         <v>0</v>
@@ -4524,13 +4521,13 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>0.5020828247070312</v>
+        <v>0.4639101028442383</v>
       </c>
       <c r="C224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4538,7 +4535,7 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>0.4504897892475128</v>
+        <v>0.4672667384147644</v>
       </c>
       <c r="C225">
         <v>0</v>
@@ -4552,7 +4549,7 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>0.2901401221752167</v>
+        <v>0.4886677265167236</v>
       </c>
       <c r="C226">
         <v>0</v>
@@ -4566,13 +4563,13 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>0.3863585293292999</v>
+        <v>0.4375296533107758</v>
       </c>
       <c r="C227">
         <v>0</v>
       </c>
       <c r="D227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4580,13 +4577,13 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>0.4923127889633179</v>
+        <v>0.5255962610244751</v>
       </c>
       <c r="C228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4594,13 +4591,13 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>0.5020828247070312</v>
+        <v>0.4597760140895844</v>
       </c>
       <c r="C229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4608,13 +4605,13 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>0.5020828247070312</v>
+        <v>0.7065228819847107</v>
       </c>
       <c r="C230">
         <v>1</v>
       </c>
       <c r="D230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4622,13 +4619,13 @@
         <v>233</v>
       </c>
       <c r="B231">
-        <v>0.5020828247070312</v>
+        <v>0.3998716473579407</v>
       </c>
       <c r="C231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4636,7 +4633,7 @@
         <v>234</v>
       </c>
       <c r="B232">
-        <v>0.4906736016273499</v>
+        <v>0.4592598974704742</v>
       </c>
       <c r="C232">
         <v>0</v>
@@ -4650,13 +4647,13 @@
         <v>235</v>
       </c>
       <c r="B233">
-        <v>0.5020828247070312</v>
+        <v>0.4833754599094391</v>
       </c>
       <c r="C233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4664,7 +4661,7 @@
         <v>236</v>
       </c>
       <c r="B234">
-        <v>0.4776784181594849</v>
+        <v>0.392779141664505</v>
       </c>
       <c r="C234">
         <v>0</v>
@@ -4678,7 +4675,7 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>0.5020828247070312</v>
+        <v>0.8182232975959778</v>
       </c>
       <c r="C235">
         <v>1</v>
@@ -4692,7 +4689,7 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>0.5020828247070312</v>
+        <v>0.6711446642875671</v>
       </c>
       <c r="C236">
         <v>1</v>
@@ -4706,13 +4703,13 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>0.5020828247070312</v>
+        <v>0.5768670439720154</v>
       </c>
       <c r="C237">
         <v>1</v>
       </c>
       <c r="D237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4720,7 +4717,7 @@
         <v>240</v>
       </c>
       <c r="B238">
-        <v>0.400272011756897</v>
+        <v>0.4623332023620605</v>
       </c>
       <c r="C238">
         <v>0</v>
@@ -4734,10 +4731,10 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>0.5020828247070312</v>
+        <v>0.4957289397716522</v>
       </c>
       <c r="C239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D239">
         <v>1</v>
@@ -4748,13 +4745,13 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>0.5020828247070312</v>
+        <v>0.4920176565647125</v>
       </c>
       <c r="C240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4762,10 +4759,10 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>0.5020828247070312</v>
+        <v>0.4187797904014587</v>
       </c>
       <c r="C241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D241">
         <v>1</v>
@@ -4776,10 +4773,10 @@
         <v>244</v>
       </c>
       <c r="B242">
-        <v>0.5020828247070312</v>
+        <v>0.462013453245163</v>
       </c>
       <c r="C242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D242">
         <v>0</v>
@@ -4790,13 +4787,13 @@
         <v>245</v>
       </c>
       <c r="B243">
-        <v>0.3920800089836121</v>
+        <v>0.478743851184845</v>
       </c>
       <c r="C243">
         <v>0</v>
       </c>
       <c r="D243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4804,10 +4801,10 @@
         <v>246</v>
       </c>
       <c r="B244">
-        <v>0.5020828247070312</v>
+        <v>0.4747809171676636</v>
       </c>
       <c r="C244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D244">
         <v>0</v>
@@ -4818,7 +4815,7 @@
         <v>247</v>
       </c>
       <c r="B245">
-        <v>0.4434586763381958</v>
+        <v>0.4848126769065857</v>
       </c>
       <c r="C245">
         <v>0</v>
@@ -4832,13 +4829,13 @@
         <v>248</v>
       </c>
       <c r="B246">
-        <v>0.4944275915622711</v>
+        <v>0.4821166396141052</v>
       </c>
       <c r="C246">
         <v>0</v>
       </c>
       <c r="D246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -4846,7 +4843,7 @@
         <v>249</v>
       </c>
       <c r="B247">
-        <v>0.5020828247070312</v>
+        <v>0.5149548053741455</v>
       </c>
       <c r="C247">
         <v>1</v>
@@ -4860,7 +4857,7 @@
         <v>250</v>
       </c>
       <c r="B248">
-        <v>0.4312527179718018</v>
+        <v>0.4569753706455231</v>
       </c>
       <c r="C248">
         <v>0</v>
@@ -4874,13 +4871,13 @@
         <v>251</v>
       </c>
       <c r="B249">
-        <v>0.4675171971321106</v>
+        <v>0.6709507703781128</v>
       </c>
       <c r="C249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -4888,13 +4885,13 @@
         <v>252</v>
       </c>
       <c r="B250">
-        <v>0.4263984262943268</v>
+        <v>0.4822332859039307</v>
       </c>
       <c r="C250">
         <v>0</v>
       </c>
       <c r="D250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -4902,13 +4899,13 @@
         <v>253</v>
       </c>
       <c r="B251">
-        <v>0.4827046692371368</v>
+        <v>0.7918110489845276</v>
       </c>
       <c r="C251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -4916,13 +4913,13 @@
         <v>254</v>
       </c>
       <c r="B252">
-        <v>0.4961651265621185</v>
+        <v>0.5857194066047668</v>
       </c>
       <c r="C252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -4930,10 +4927,10 @@
         <v>255</v>
       </c>
       <c r="B253">
-        <v>0.4429627060890198</v>
+        <v>0.674759566783905</v>
       </c>
       <c r="C253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D253">
         <v>0</v>
@@ -4944,7 +4941,7 @@
         <v>256</v>
       </c>
       <c r="B254">
-        <v>0.4472694396972656</v>
+        <v>0.484051913022995</v>
       </c>
       <c r="C254">
         <v>0</v>
@@ -4958,13 +4955,13 @@
         <v>257</v>
       </c>
       <c r="B255">
-        <v>0.4554541707038879</v>
+        <v>0.5133660435676575</v>
       </c>
       <c r="C255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -4972,13 +4969,13 @@
         <v>258</v>
       </c>
       <c r="B256">
-        <v>0.5020828247070312</v>
+        <v>0.4807793796062469</v>
       </c>
       <c r="C256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -4986,13 +4983,13 @@
         <v>259</v>
       </c>
       <c r="B257">
-        <v>0.488937109708786</v>
+        <v>0.8023112416267395</v>
       </c>
       <c r="C257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5000,7 +4997,7 @@
         <v>260</v>
       </c>
       <c r="B258">
-        <v>0.4895888864994049</v>
+        <v>0.3857218623161316</v>
       </c>
       <c r="C258">
         <v>0</v>
@@ -5014,13 +5011,13 @@
         <v>261</v>
       </c>
       <c r="B259">
-        <v>0.4712555110454559</v>
+        <v>0.4010219573974609</v>
       </c>
       <c r="C259">
         <v>0</v>
       </c>
       <c r="D259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5028,13 +5025,13 @@
         <v>262</v>
       </c>
       <c r="B260">
-        <v>0.4140956401824951</v>
+        <v>0.4357283711433411</v>
       </c>
       <c r="C260">
         <v>0</v>
       </c>
       <c r="D260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5042,10 +5039,10 @@
         <v>263</v>
       </c>
       <c r="B261">
-        <v>0.5020828247070312</v>
+        <v>0.4600217938423157</v>
       </c>
       <c r="C261">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D261">
         <v>1</v>
@@ -5056,7 +5053,7 @@
         <v>264</v>
       </c>
       <c r="B262">
-        <v>0.4173231720924377</v>
+        <v>0.481539398431778</v>
       </c>
       <c r="C262">
         <v>0</v>
@@ -5070,13 +5067,13 @@
         <v>265</v>
       </c>
       <c r="B263">
-        <v>0.4947130680084229</v>
+        <v>0.5297488570213318</v>
       </c>
       <c r="C263">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5084,13 +5081,13 @@
         <v>266</v>
       </c>
       <c r="B264">
-        <v>0.4418644309043884</v>
+        <v>0.502278745174408</v>
       </c>
       <c r="C264">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5098,7 +5095,7 @@
         <v>267</v>
       </c>
       <c r="B265">
-        <v>0.5020828247070312</v>
+        <v>0.6812476515769958</v>
       </c>
       <c r="C265">
         <v>1</v>
@@ -5112,10 +5109,10 @@
         <v>268</v>
       </c>
       <c r="B266">
-        <v>0.4305782318115234</v>
+        <v>0.7749424576759338</v>
       </c>
       <c r="C266">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D266">
         <v>1</v>
@@ -5126,10 +5123,10 @@
         <v>269</v>
       </c>
       <c r="B267">
-        <v>0.5020828247070312</v>
+        <v>0.4658092558383942</v>
       </c>
       <c r="C267">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D267">
         <v>0</v>
@@ -5140,13 +5137,13 @@
         <v>270</v>
       </c>
       <c r="B268">
-        <v>0.5020828247070312</v>
+        <v>0.723336398601532</v>
       </c>
       <c r="C268">
         <v>1</v>
       </c>
       <c r="D268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5154,13 +5151,13 @@
         <v>271</v>
       </c>
       <c r="B269">
-        <v>0.3929605782032013</v>
+        <v>0.5802830457687378</v>
       </c>
       <c r="C269">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5168,13 +5165,13 @@
         <v>272</v>
       </c>
       <c r="B270">
-        <v>0.5020828247070312</v>
+        <v>0.6053120493888855</v>
       </c>
       <c r="C270">
         <v>1</v>
       </c>
       <c r="D270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5182,7 +5179,7 @@
         <v>273</v>
       </c>
       <c r="B271">
-        <v>0.5020828247070312</v>
+        <v>0.7325924038887024</v>
       </c>
       <c r="C271">
         <v>1</v>
@@ -5196,10 +5193,10 @@
         <v>274</v>
       </c>
       <c r="B272">
-        <v>0.4944831430912018</v>
+        <v>0.7663730382919312</v>
       </c>
       <c r="C272">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D272">
         <v>1</v>
@@ -5210,7 +5207,7 @@
         <v>275</v>
       </c>
       <c r="B273">
-        <v>0.4918850660324097</v>
+        <v>0.4412834048271179</v>
       </c>
       <c r="C273">
         <v>0</v>
@@ -5224,13 +5221,13 @@
         <v>276</v>
       </c>
       <c r="B274">
-        <v>0.2897397875785828</v>
+        <v>0.4143546521663666</v>
       </c>
       <c r="C274">
         <v>0</v>
       </c>
       <c r="D274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5238,13 +5235,13 @@
         <v>277</v>
       </c>
       <c r="B275">
-        <v>0.5020828247070312</v>
+        <v>0.5093834400177002</v>
       </c>
       <c r="C275">
         <v>1</v>
       </c>
       <c r="D275">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5252,13 +5249,13 @@
         <v>278</v>
       </c>
       <c r="B276">
-        <v>0.4423829615116119</v>
+        <v>0.4702972769737244</v>
       </c>
       <c r="C276">
         <v>0</v>
       </c>
       <c r="D276">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5266,10 +5263,10 @@
         <v>279</v>
       </c>
       <c r="B277">
-        <v>0.4585419297218323</v>
+        <v>0.5201466679573059</v>
       </c>
       <c r="C277">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D277">
         <v>0</v>
@@ -5280,13 +5277,13 @@
         <v>280</v>
       </c>
       <c r="B278">
-        <v>0.466070145368576</v>
+        <v>0.4680227041244507</v>
       </c>
       <c r="C278">
         <v>0</v>
       </c>
       <c r="D278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5294,7 +5291,7 @@
         <v>281</v>
       </c>
       <c r="B279">
-        <v>0.456173837184906</v>
+        <v>0.4378706216812134</v>
       </c>
       <c r="C279">
         <v>0</v>
@@ -5308,13 +5305,13 @@
         <v>282</v>
       </c>
       <c r="B280">
-        <v>0.4181286096572876</v>
+        <v>0.487059086561203</v>
       </c>
       <c r="C280">
         <v>0</v>
       </c>
       <c r="D280">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5322,10 +5319,10 @@
         <v>283</v>
       </c>
       <c r="B281">
-        <v>0.5020828247070312</v>
+        <v>0.4552569985389709</v>
       </c>
       <c r="C281">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D281">
         <v>0</v>
@@ -5336,13 +5333,13 @@
         <v>284</v>
       </c>
       <c r="B282">
-        <v>0.4362074732780457</v>
+        <v>0.6025597453117371</v>
       </c>
       <c r="C282">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5350,13 +5347,13 @@
         <v>285</v>
       </c>
       <c r="B283">
-        <v>0.4583122432231903</v>
+        <v>0.4661550223827362</v>
       </c>
       <c r="C283">
         <v>0</v>
       </c>
       <c r="D283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5364,13 +5361,13 @@
         <v>286</v>
       </c>
       <c r="B284">
-        <v>0.2502712905406952</v>
+        <v>0.5609161853790283</v>
       </c>
       <c r="C284">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5378,13 +5375,13 @@
         <v>287</v>
       </c>
       <c r="B285">
-        <v>0.478549063205719</v>
+        <v>0.3549986183643341</v>
       </c>
       <c r="C285">
         <v>0</v>
       </c>
       <c r="D285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5392,7 +5389,7 @@
         <v>288</v>
       </c>
       <c r="B286">
-        <v>0.477407306432724</v>
+        <v>0.4428454637527466</v>
       </c>
       <c r="C286">
         <v>0</v>
@@ -5406,10 +5403,10 @@
         <v>289</v>
       </c>
       <c r="B287">
-        <v>0.4762715995311737</v>
+        <v>0.7994279265403748</v>
       </c>
       <c r="C287">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D287">
         <v>0</v>
@@ -5420,10 +5417,10 @@
         <v>290</v>
       </c>
       <c r="B288">
-        <v>0.5020828247070312</v>
+        <v>0.4143546521663666</v>
       </c>
       <c r="C288">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D288">
         <v>0</v>
@@ -5434,13 +5431,13 @@
         <v>291</v>
       </c>
       <c r="B289">
-        <v>0.5020828247070312</v>
+        <v>0.9326698780059814</v>
       </c>
       <c r="C289">
         <v>1</v>
       </c>
       <c r="D289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5448,10 +5445,10 @@
         <v>292</v>
       </c>
       <c r="B290">
-        <v>0.5020828247070312</v>
+        <v>0.4356310963630676</v>
       </c>
       <c r="C290">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D290">
         <v>0</v>
@@ -5462,10 +5459,10 @@
         <v>293</v>
       </c>
       <c r="B291">
-        <v>0.5020828247070312</v>
+        <v>0.4019730985164642</v>
       </c>
       <c r="C291">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D291">
         <v>1</v>
@@ -5476,13 +5473,13 @@
         <v>294</v>
       </c>
       <c r="B292">
-        <v>0.5020828247070312</v>
+        <v>0.4601447284221649</v>
       </c>
       <c r="C292">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5490,7 +5487,7 @@
         <v>295</v>
       </c>
       <c r="B293">
-        <v>0.4929224848747253</v>
+        <v>0.381790429353714</v>
       </c>
       <c r="C293">
         <v>0</v>
@@ -5504,10 +5501,10 @@
         <v>296</v>
       </c>
       <c r="B294">
-        <v>0.50163733959198</v>
+        <v>0.4542265236377716</v>
       </c>
       <c r="C294">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D294">
         <v>1</v>
@@ -5518,13 +5515,13 @@
         <v>297</v>
       </c>
       <c r="B295">
-        <v>0.5020828247070312</v>
+        <v>0.4007367491722107</v>
       </c>
       <c r="C295">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -5532,7 +5529,7 @@
         <v>298</v>
       </c>
       <c r="B296">
-        <v>0.5020828247070312</v>
+        <v>0.5157786011695862</v>
       </c>
       <c r="C296">
         <v>1</v>
@@ -5546,7 +5543,7 @@
         <v>299</v>
       </c>
       <c r="B297">
-        <v>0.4882330894470215</v>
+        <v>0.4392350614070892</v>
       </c>
       <c r="C297">
         <v>0</v>
@@ -5560,13 +5557,13 @@
         <v>300</v>
       </c>
       <c r="B298">
-        <v>0.4760017693042755</v>
+        <v>0.4475381076335907</v>
       </c>
       <c r="C298">
         <v>0</v>
       </c>
       <c r="D298">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -5574,13 +5571,13 @@
         <v>301</v>
       </c>
       <c r="B299">
-        <v>0.4543599486351013</v>
+        <v>0.8273293972015381</v>
       </c>
       <c r="C299">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -5588,10 +5585,10 @@
         <v>302</v>
       </c>
       <c r="B300">
-        <v>0.5020828247070312</v>
+        <v>0.4443108141422272</v>
       </c>
       <c r="C300">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D300">
         <v>1</v>
@@ -5602,13 +5599,13 @@
         <v>303</v>
       </c>
       <c r="B301">
-        <v>0.4805109798908234</v>
+        <v>0.9013775587081909</v>
       </c>
       <c r="C301">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -5616,7 +5613,7 @@
         <v>304</v>
       </c>
       <c r="B302">
-        <v>0.5020828247070312</v>
+        <v>0.6439284682273865</v>
       </c>
       <c r="C302">
         <v>1</v>
@@ -5630,13 +5627,13 @@
         <v>305</v>
       </c>
       <c r="B303">
-        <v>0.5020828247070312</v>
+        <v>0.4742264151573181</v>
       </c>
       <c r="C303">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -5644,13 +5641,13 @@
         <v>306</v>
       </c>
       <c r="B304">
-        <v>0.4932519793510437</v>
+        <v>0.4727882444858551</v>
       </c>
       <c r="C304">
         <v>0</v>
       </c>
       <c r="D304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -5658,10 +5655,10 @@
         <v>307</v>
       </c>
       <c r="B305">
-        <v>0.4780140817165375</v>
+        <v>0.615318238735199</v>
       </c>
       <c r="C305">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D305">
         <v>1</v>
@@ -5672,13 +5669,13 @@
         <v>308</v>
       </c>
       <c r="B306">
-        <v>0.4573385417461395</v>
+        <v>0.4214315116405487</v>
       </c>
       <c r="C306">
         <v>0</v>
       </c>
       <c r="D306">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -5686,10 +5683,10 @@
         <v>309</v>
       </c>
       <c r="B307">
-        <v>0.3454405069351196</v>
+        <v>0.5155227184295654</v>
       </c>
       <c r="C307">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D307">
         <v>1</v>
@@ -5700,13 +5697,13 @@
         <v>310</v>
       </c>
       <c r="B308">
-        <v>0.4042933285236359</v>
+        <v>0.5319961309432983</v>
       </c>
       <c r="C308">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D308">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -5714,13 +5711,13 @@
         <v>311</v>
       </c>
       <c r="B309">
-        <v>0.4987993538379669</v>
+        <v>0.6041272282600403</v>
       </c>
       <c r="C309">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D309">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -5728,10 +5725,10 @@
         <v>312</v>
       </c>
       <c r="B310">
-        <v>0.5020828247070312</v>
+        <v>0.4300924837589264</v>
       </c>
       <c r="C310">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D310">
         <v>1</v>
@@ -5742,7 +5739,7 @@
         <v>313</v>
       </c>
       <c r="B311">
-        <v>0.5020828247070312</v>
+        <v>0.8579683303833008</v>
       </c>
       <c r="C311">
         <v>1</v>
@@ -5756,10 +5753,10 @@
         <v>314</v>
       </c>
       <c r="B312">
-        <v>0.5020828247070312</v>
+        <v>0.4633415639400482</v>
       </c>
       <c r="C312">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D312">
         <v>0</v>
@@ -5770,7 +5767,7 @@
         <v>315</v>
       </c>
       <c r="B313">
-        <v>0.4947512149810791</v>
+        <v>0.4984575510025024</v>
       </c>
       <c r="C313">
         <v>0</v>
@@ -5784,13 +5781,13 @@
         <v>316</v>
       </c>
       <c r="B314">
-        <v>0.4866595864295959</v>
+        <v>0.6441923975944519</v>
       </c>
       <c r="C314">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D314">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -5798,13 +5795,13 @@
         <v>317</v>
       </c>
       <c r="B315">
-        <v>0.4933283627033234</v>
+        <v>0.4597268402576447</v>
       </c>
       <c r="C315">
         <v>0</v>
       </c>
       <c r="D315">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -5812,13 +5809,13 @@
         <v>318</v>
       </c>
       <c r="B316">
-        <v>0.4877986013889313</v>
+        <v>0.3754581809043884</v>
       </c>
       <c r="C316">
         <v>0</v>
       </c>
       <c r="D316">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -5826,7 +5823,7 @@
         <v>319</v>
       </c>
       <c r="B317">
-        <v>0.4923354387283325</v>
+        <v>0.3269920647144318</v>
       </c>
       <c r="C317">
         <v>0</v>
@@ -5840,13 +5837,13 @@
         <v>320</v>
       </c>
       <c r="B318">
-        <v>0.4753148853778839</v>
+        <v>0.7156875729560852</v>
       </c>
       <c r="C318">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D318">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -5854,13 +5851,13 @@
         <v>321</v>
       </c>
       <c r="B319">
-        <v>0.4944522678852081</v>
+        <v>0.4487273693084717</v>
       </c>
       <c r="C319">
         <v>0</v>
       </c>
       <c r="D319">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -5868,10 +5865,10 @@
         <v>322</v>
       </c>
       <c r="B320">
-        <v>0.5020828247070312</v>
+        <v>0.3953309953212738</v>
       </c>
       <c r="C320">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D320">
         <v>0</v>
@@ -5882,13 +5879,13 @@
         <v>323</v>
       </c>
       <c r="B321">
-        <v>0.4938233494758606</v>
+        <v>0.4240878224372864</v>
       </c>
       <c r="C321">
         <v>0</v>
       </c>
       <c r="D321">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -5896,7 +5893,7 @@
         <v>324</v>
       </c>
       <c r="B322">
-        <v>0.4908410012722015</v>
+        <v>0.3584500849246979</v>
       </c>
       <c r="C322">
         <v>0</v>
@@ -5910,13 +5907,13 @@
         <v>325</v>
       </c>
       <c r="B323">
-        <v>0.4841640591621399</v>
+        <v>0.4598251581192017</v>
       </c>
       <c r="C323">
         <v>0</v>
       </c>
       <c r="D323">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -5924,10 +5921,10 @@
         <v>326</v>
       </c>
       <c r="B324">
-        <v>0.5020828247070312</v>
+        <v>0.4691576361656189</v>
       </c>
       <c r="C324">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D324">
         <v>1</v>
@@ -5938,13 +5935,13 @@
         <v>327</v>
       </c>
       <c r="B325">
-        <v>0.4932754635810852</v>
+        <v>0.7560667991638184</v>
       </c>
       <c r="C325">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D325">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -5952,10 +5949,10 @@
         <v>328</v>
       </c>
       <c r="B326">
-        <v>0.5020828247070312</v>
+        <v>0.4756660163402557</v>
       </c>
       <c r="C326">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D326">
         <v>0</v>
@@ -5966,13 +5963,13 @@
         <v>329</v>
       </c>
       <c r="B327">
-        <v>0.4459438025951385</v>
+        <v>0.7719180583953857</v>
       </c>
       <c r="C327">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D327">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -5980,13 +5977,13 @@
         <v>330</v>
       </c>
       <c r="B328">
-        <v>0.3875747323036194</v>
+        <v>0.4371887445449829</v>
       </c>
       <c r="C328">
         <v>0</v>
       </c>
       <c r="D328">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -5994,13 +5991,13 @@
         <v>331</v>
       </c>
       <c r="B329">
-        <v>0.5020828247070312</v>
+        <v>0.4532699584960938</v>
       </c>
       <c r="C329">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D329">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6008,13 +6005,13 @@
         <v>332</v>
       </c>
       <c r="B330">
-        <v>0.4158761501312256</v>
+        <v>0.4377244710922241</v>
       </c>
       <c r="C330">
         <v>0</v>
       </c>
       <c r="D330">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6022,7 +6019,7 @@
         <v>333</v>
       </c>
       <c r="B331">
-        <v>0.5020828247070312</v>
+        <v>0.5014119148254395</v>
       </c>
       <c r="C331">
         <v>1</v>
@@ -6036,13 +6033,13 @@
         <v>334</v>
       </c>
       <c r="B332">
-        <v>0.474107027053833</v>
+        <v>0.489075243473053</v>
       </c>
       <c r="C332">
         <v>0</v>
       </c>
       <c r="D332">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6050,10 +6047,10 @@
         <v>335</v>
       </c>
       <c r="B333">
-        <v>0.4746311008930206</v>
+        <v>0.8478713035583496</v>
       </c>
       <c r="C333">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D333">
         <v>1</v>
@@ -6064,10 +6061,10 @@
         <v>336</v>
       </c>
       <c r="B334">
-        <v>0.4828120470046997</v>
+        <v>0.8480831384658813</v>
       </c>
       <c r="C334">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D334">
         <v>1</v>
@@ -6078,13 +6075,13 @@
         <v>337</v>
       </c>
       <c r="B335">
-        <v>0.5020828247070312</v>
+        <v>0.4613002240657806</v>
       </c>
       <c r="C335">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D335">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6092,27 +6089,13 @@
         <v>338</v>
       </c>
       <c r="B336">
-        <v>0.5020828247070312</v>
+        <v>0.4749069511890411</v>
       </c>
       <c r="C336">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D336">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="337" spans="1:4">
-      <c r="A337" t="s">
-        <v>339</v>
-      </c>
-      <c r="B337">
-        <v>0.4468935132026672</v>
-      </c>
-      <c r="C337">
-        <v>0</v>
-      </c>
-      <c r="D337">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
